--- a/SRS ENTREGA/ENCUESTA_V0.1.xlsx
+++ b/SRS ENTREGA/ENCUESTA_V0.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="ALCANCE DE REQUERIMIENTOS" sheetId="2" r:id="rId2"/>
     <sheet name="ENCUESTA COSTOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="152">
   <si>
     <t>PRIORIDAD DE LOS REQUERIMIENTOS (1-10)</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ALCANCE ES SI CADA UNO CREE QUE SE VA A HACER ENTONCES 1 SIGNIFICA SI, 0 SIGNIFICA NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -747,6 +750,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,15 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1086,30 +1089,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1147,21 +1150,23 @@
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27">
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="27">
         <f>H4/6</f>
         <v>0</v>
       </c>
-      <c r="J4" s="34" t="str">
+      <c r="J4" s="28" t="str">
         <f>IF(I4&lt;=4,"DESEABLE",IF(I4&lt;=7,"OPCIONAL",IF(I4&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
         <v>DESEABLE</v>
       </c>
@@ -1175,16 +1180,18 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H69" si="0">SUM(B5:G5)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2">
         <f>H5/6</f>
-        <v>1.3333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J5" s="13" t="str">
         <f t="shared" ref="J5:J68" si="1">IF(I5&lt;=4,"DESEABLE",IF(I5&lt;=7,"OPCIONAL",IF(I5&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
@@ -1200,16 +1207,18 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" ref="I6:I69" si="2">H6/6</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J6" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1231,16 +1240,18 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J7" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1262,16 +1273,18 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J8" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1293,16 +1306,18 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J9" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1324,16 +1339,18 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J10" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1355,16 +1372,18 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J11" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1380,16 +1399,18 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J12" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1400,21 +1421,23 @@
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="str">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -1428,16 +1451,18 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J14" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1453,16 +1478,18 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1478,16 +1505,18 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J16" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1503,16 +1532,18 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J17" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1528,16 +1559,18 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J18" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1553,16 +1586,18 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J19" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1578,16 +1613,18 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1603,16 +1640,18 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1628,16 +1667,18 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1648,21 +1689,23 @@
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="35" t="str">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -1676,16 +1719,18 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="J24" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1701,16 +1746,18 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="J25" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1726,7 +1773,9 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="17">
@@ -1751,16 +1800,18 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J27" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1776,16 +1827,18 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J28" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1801,16 +1854,18 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="J29" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1826,16 +1881,18 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J30" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1851,16 +1908,18 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J31" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1876,16 +1935,18 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J32" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1901,16 +1962,18 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J33" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1926,16 +1989,18 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="J34" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1951,16 +2016,18 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J35" s="13" t="str">
         <f t="shared" si="1"/>
@@ -1976,16 +2043,18 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J36" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2001,16 +2070,18 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J37" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2026,16 +2097,18 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I38" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J38" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2051,16 +2124,18 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I39" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J39" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2076,16 +2151,18 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I40" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J40" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2101,16 +2178,18 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I41" s="17">
         <f t="shared" si="2"/>
-        <v>1.1666666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J41" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2126,16 +2205,18 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="I42" s="17">
         <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J42" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2146,21 +2227,23 @@
       <c r="A43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="35" t="str">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -2174,16 +2257,18 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="I44" s="17">
         <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="J44" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2199,16 +2284,18 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="I45" s="17">
         <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="J45" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2224,16 +2311,18 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="J46" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2249,16 +2338,18 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="17">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="I47" s="17">
         <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="J47" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2269,21 +2360,23 @@
       <c r="A48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="35" t="str">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -2297,16 +2390,18 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J49" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2322,16 +2417,18 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I50" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J50" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2347,16 +2444,18 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I51" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J51" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2372,16 +2471,18 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I52" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J52" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2397,16 +2498,18 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I53" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J53" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2422,16 +2525,18 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I54" s="17">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J54" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2447,7 +2552,9 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="17">
@@ -2472,16 +2579,18 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>6</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I56" s="17">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J56" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2497,16 +2606,18 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I57" s="17">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="J57" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2522,16 +2633,18 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I58" s="17">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J58" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2547,16 +2660,18 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>4</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I59" s="17">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J59" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2572,16 +2687,18 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I60" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J60" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2597,16 +2714,18 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>7</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I61" s="17">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="J61" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2617,21 +2736,23 @@
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="35" t="str">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -2640,21 +2761,23 @@
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="35" t="str">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="29" t="str">
         <f t="shared" si="1"/>
         <v>DESEABLE</v>
       </c>
@@ -2668,16 +2791,18 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I64" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J64" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2693,16 +2818,18 @@
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I65" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J65" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2718,16 +2845,18 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I66" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J66" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2743,16 +2872,18 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I67" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J67" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2768,16 +2899,18 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>8</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I68" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="J68" s="13" t="str">
         <f t="shared" si="1"/>
@@ -2793,16 +2926,18 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>8</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I69" s="17">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="J69" s="13" t="str">
         <f t="shared" ref="J69:J132" si="3">IF(I69&lt;=4,"DESEABLE",IF(I69&lt;=7,"OPCIONAL",IF(I69&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
@@ -2818,16 +2953,18 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="17">
         <f t="shared" ref="H70:H133" si="4">SUM(B70:G70)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I70" s="17">
         <f t="shared" ref="I70:I133" si="5">H70/6</f>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J70" s="13" t="str">
         <f t="shared" si="3"/>
@@ -2843,16 +2980,18 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2">
+        <v>7</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I71" s="17">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>1.5</v>
       </c>
       <c r="J71" s="13" t="str">
         <f t="shared" si="3"/>
@@ -2868,16 +3007,18 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>6</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I72" s="17">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J72" s="13" t="str">
         <f t="shared" si="3"/>
@@ -2893,16 +3034,18 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>6</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I73" s="17">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J73" s="13" t="str">
         <f t="shared" si="3"/>
@@ -2918,16 +3061,18 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>7</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I74" s="17">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J74" s="13" t="str">
         <f t="shared" si="3"/>
@@ -2938,21 +3083,23 @@
       <c r="A75" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J75" s="35" t="str">
+      <c r="J75" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -2961,21 +3108,23 @@
       <c r="A76" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J76" s="35" t="str">
+      <c r="J76" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -2984,21 +3133,23 @@
       <c r="A77" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J77" s="35" t="str">
+      <c r="J77" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3007,21 +3158,23 @@
       <c r="A78" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J78" s="35" t="str">
+      <c r="J78" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3030,21 +3183,23 @@
       <c r="A79" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J79" s="35" t="str">
+      <c r="J79" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3058,16 +3213,18 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>7</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I80" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J80" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3083,16 +3240,18 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I81" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J81" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3108,16 +3267,18 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I82" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J82" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3133,16 +3294,18 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>6</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I83" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J83" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3158,16 +3321,18 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>5</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I84" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J84" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3183,16 +3348,18 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>6</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I85" s="17">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J85" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3203,21 +3370,23 @@
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J86" s="35" t="str">
+      <c r="J86" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3231,16 +3400,18 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>5</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I87" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J87" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3256,16 +3427,18 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>8</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I88" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="J88" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3281,16 +3454,18 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>8</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I89" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="J89" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3301,21 +3476,23 @@
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J90" s="35" t="str">
+      <c r="J90" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3329,16 +3506,18 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>6</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I91" s="17">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J91" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3354,16 +3533,18 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>7</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I92" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J92" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3379,16 +3560,18 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>5</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I93" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J93" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3404,16 +3587,18 @@
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>5</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I94" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J94" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3429,16 +3614,18 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>5</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I95" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J95" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3454,16 +3641,18 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>7</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I96" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J96" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3479,16 +3668,18 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>6</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I97" s="17">
         <f t="shared" si="5"/>
-        <v>1.3333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J97" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3504,16 +3695,18 @@
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>5</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I98" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J98" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3529,16 +3722,18 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>5</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I99" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J99" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3554,16 +3749,18 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>8</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="17">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I100" s="17">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>3</v>
       </c>
       <c r="J100" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3579,16 +3776,18 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>5</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I101" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2</v>
       </c>
       <c r="J101" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3604,16 +3803,18 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102" s="17">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J102" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3629,16 +3830,18 @@
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>5</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="17">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J103" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3654,16 +3857,18 @@
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2">
+        <v>7</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I104" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="J104" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3674,21 +3879,23 @@
       <c r="A105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J105" s="35" t="str">
+      <c r="J105" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3702,16 +3909,18 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>6</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I106" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J106" s="13" t="str">
         <f t="shared" si="3"/>
@@ -3722,21 +3931,23 @@
       <c r="A107" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33">
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I107" s="33">
+      <c r="I107" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J107" s="35" t="str">
+      <c r="J107" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3745,21 +3956,23 @@
       <c r="A108" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I108" s="33">
+      <c r="I108" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J108" s="35" t="str">
+      <c r="J108" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3768,21 +3981,23 @@
       <c r="A109" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33">
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I109" s="33">
+      <c r="I109" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J109" s="35" t="str">
+      <c r="J109" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3791,21 +4006,23 @@
       <c r="A110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33">
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I110" s="33">
+      <c r="I110" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J110" s="35" t="str">
+      <c r="J110" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3814,21 +4031,23 @@
       <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33">
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I111" s="33">
+      <c r="I111" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J111" s="35" t="str">
+      <c r="J111" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3837,21 +4056,23 @@
       <c r="A112" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33">
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I112" s="33">
+      <c r="I112" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J112" s="35" t="str">
+      <c r="J112" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3860,21 +4081,23 @@
       <c r="A113" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33">
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I113" s="33">
+      <c r="I113" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J113" s="35" t="str">
+      <c r="J113" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3883,21 +4106,23 @@
       <c r="A114" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33">
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I114" s="33">
+      <c r="I114" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J114" s="35" t="str">
+      <c r="J114" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3906,21 +4131,23 @@
       <c r="A115" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I115" s="33">
+      <c r="I115" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J115" s="35" t="str">
+      <c r="J115" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3929,21 +4156,23 @@
       <c r="A116" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I116" s="33">
+      <c r="I116" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J116" s="35" t="str">
+      <c r="J116" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3952,21 +4181,23 @@
       <c r="A117" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33">
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I117" s="33">
+      <c r="I117" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J117" s="35" t="str">
+      <c r="J117" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -3980,16 +4211,18 @@
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>8</v>
+      </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="I118" s="17">
         <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J118" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4005,16 +4238,18 @@
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="I119" s="17">
         <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J119" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4030,16 +4265,18 @@
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1">
+        <v>8</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="I120" s="17">
         <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J120" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4055,16 +4292,18 @@
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1">
+        <v>8</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="I121" s="17">
         <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J121" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4080,16 +4319,18 @@
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1">
+        <v>9</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="17">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="I122" s="17">
         <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="J122" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4105,16 +4346,18 @@
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I123" s="17">
         <f t="shared" si="5"/>
-        <v>1.1666666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="J123" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4125,21 +4368,23 @@
       <c r="A124" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="33">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I124" s="33">
+      <c r="I124" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J124" s="35" t="str">
+      <c r="J124" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -4153,16 +4398,18 @@
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I125" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J125" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4178,16 +4425,18 @@
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1">
+        <v>8</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I126" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J126" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4198,21 +4447,23 @@
       <c r="A127" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="33">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I127" s="33">
+      <c r="I127" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J127" s="35" t="str">
+      <c r="J127" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -4221,21 +4472,23 @@
       <c r="A128" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="33">
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I128" s="33">
+      <c r="I128" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J128" s="35" t="str">
+      <c r="J128" s="29" t="str">
         <f t="shared" si="3"/>
         <v>DESEABLE</v>
       </c>
@@ -4249,16 +4502,18 @@
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="17">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I129" s="17">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J129" s="13" t="str">
         <f t="shared" si="3"/>
@@ -4490,8 +4745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4505,31 +4760,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -4565,17 +4820,19 @@
       <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27">
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="33" t="str">
+      <c r="I4" s="27" t="str">
         <f>IF(H4&gt;=4,"SI","NO")</f>
         <v>NO</v>
       </c>
@@ -4589,12 +4846,14 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H68" si="0">SUM(B5:G5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:I68" si="1">IF(H5&gt;=4,"SI","NO")</f>
@@ -4610,12 +4869,14 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4631,12 +4892,14 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4652,12 +4915,14 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4673,12 +4938,14 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4694,12 +4961,14 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4715,12 +4984,14 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4736,12 +5007,14 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4752,17 +5025,19 @@
       <c r="A13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="33" t="str">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -4776,12 +5051,14 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4797,12 +5074,14 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4818,12 +5097,14 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4839,12 +5120,14 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4860,12 +5143,14 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4881,12 +5166,14 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4902,12 +5189,14 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4923,12 +5212,14 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4944,12 +5235,14 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="17" t="str">
         <f t="shared" si="1"/>
@@ -4960,17 +5253,19 @@
       <c r="A23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="33" t="str">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -4984,12 +5279,14 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5005,7 +5302,9 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="17">
@@ -5026,7 +5325,9 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="17">
@@ -5047,12 +5348,14 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5068,12 +5371,14 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5089,7 +5394,9 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="17">
@@ -5110,7 +5417,9 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="17">
@@ -5131,7 +5440,9 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="17">
@@ -5152,7 +5463,9 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="17">
@@ -5173,12 +5486,14 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5194,12 +5509,14 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5215,12 +5532,14 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5236,12 +5555,14 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5257,12 +5578,14 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5278,7 +5601,9 @@
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="17">
@@ -5299,12 +5624,14 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5320,12 +5647,14 @@
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5341,12 +5670,14 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5362,12 +5693,14 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5378,17 +5711,19 @@
       <c r="A43" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="33" t="str">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -5402,12 +5737,14 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5423,12 +5760,14 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5444,12 +5783,14 @@
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5465,12 +5806,14 @@
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5481,17 +5824,19 @@
       <c r="A48" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="33" t="str">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -5505,12 +5850,14 @@
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5526,12 +5873,14 @@
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5547,12 +5896,14 @@
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5568,12 +5919,14 @@
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5589,7 +5942,9 @@
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="17">
@@ -5610,7 +5965,9 @@
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="17">
@@ -5631,7 +5988,9 @@
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="17">
@@ -5652,7 +6011,9 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="17">
@@ -5673,7 +6034,9 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="17">
@@ -5694,7 +6057,9 @@
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="17">
@@ -5715,12 +6080,14 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5736,12 +6103,14 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5757,12 +6126,14 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5773,17 +6144,19 @@
       <c r="A62" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="33" t="str">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -5792,17 +6165,19 @@
       <c r="A63" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="33" t="str">
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="27" t="str">
         <f t="shared" si="1"/>
         <v>NO</v>
       </c>
@@ -5816,12 +6191,14 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5837,12 +6214,14 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5858,12 +6237,14 @@
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5879,12 +6260,14 @@
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5900,12 +6283,14 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10">
+        <v>1</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="17" t="str">
         <f t="shared" si="1"/>
@@ -5921,12 +6306,14 @@
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="E69" s="10">
+        <v>1</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="17">
         <f t="shared" ref="H69:H132" si="2">SUM(B69:G69)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="17" t="str">
         <f t="shared" ref="I69:I132" si="3">IF(H69&gt;=4,"SI","NO")</f>
@@ -5942,12 +6329,14 @@
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="17" t="str">
         <f t="shared" si="3"/>
@@ -5963,7 +6352,9 @@
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="17">
@@ -5984,12 +6375,14 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6005,12 +6398,14 @@
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6026,12 +6421,14 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6042,17 +6439,19 @@
       <c r="A75" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="33" t="str">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6061,17 +6460,19 @@
       <c r="A76" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="33" t="str">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6080,17 +6481,19 @@
       <c r="A77" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="33" t="str">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6099,17 +6502,19 @@
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="33" t="str">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6118,17 +6523,19 @@
       <c r="A79" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="33" t="str">
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6142,12 +6549,14 @@
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
+      <c r="E80" s="10">
+        <v>1</v>
+      </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6163,12 +6572,14 @@
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="E81" s="10">
+        <v>1</v>
+      </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6184,12 +6595,14 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6205,12 +6618,14 @@
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6226,12 +6641,14 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6247,12 +6664,14 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6263,17 +6682,19 @@
       <c r="A86" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="33" t="str">
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6287,12 +6708,14 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6308,12 +6731,14 @@
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
+      <c r="E88" s="10">
+        <v>1</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6329,7 +6754,9 @@
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="17">
@@ -6345,17 +6772,19 @@
       <c r="A90" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="33" t="str">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6369,7 +6798,9 @@
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="17">
@@ -6390,12 +6821,14 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
+      <c r="E92" s="10">
+        <v>1</v>
+      </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6411,12 +6844,14 @@
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
+      <c r="E93" s="10">
+        <v>1</v>
+      </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6432,12 +6867,14 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="E94" s="10">
+        <v>1</v>
+      </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6453,12 +6890,14 @@
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
+      <c r="E95" s="10">
+        <v>1</v>
+      </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6474,12 +6913,14 @@
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
+      <c r="E96" s="10">
+        <v>1</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6495,12 +6936,14 @@
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
+      <c r="E97" s="10">
+        <v>1</v>
+      </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6516,12 +6959,14 @@
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6537,12 +6982,14 @@
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6558,12 +7005,14 @@
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
+      <c r="E100" s="10">
+        <v>1</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6579,12 +7028,14 @@
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
+      <c r="E101" s="10">
+        <v>1</v>
+      </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6600,12 +7051,14 @@
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="E102" s="10">
+        <v>1</v>
+      </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6621,12 +7074,14 @@
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
+      <c r="E103" s="10">
+        <v>1</v>
+      </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6642,12 +7097,14 @@
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6658,17 +7115,19 @@
       <c r="A105" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="33" t="str">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6682,12 +7141,14 @@
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
+      <c r="E106" s="10">
+        <v>1</v>
+      </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6698,17 +7159,19 @@
       <c r="A107" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="33" t="str">
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6717,17 +7180,19 @@
       <c r="A108" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="33" t="str">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6736,17 +7201,19 @@
       <c r="A109" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="33" t="str">
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6755,17 +7222,19 @@
       <c r="A110" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="33" t="str">
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6774,17 +7243,19 @@
       <c r="A111" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="33" t="str">
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6793,17 +7264,19 @@
       <c r="A112" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="33" t="str">
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6812,17 +7285,19 @@
       <c r="A113" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="33" t="str">
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6831,17 +7306,19 @@
       <c r="A114" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="33" t="str">
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6850,17 +7327,19 @@
       <c r="A115" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="33" t="str">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6869,17 +7348,19 @@
       <c r="A116" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="33" t="str">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6888,17 +7369,19 @@
       <c r="A117" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="33" t="str">
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -6912,12 +7395,14 @@
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
+      <c r="E118" s="10">
+        <v>1</v>
+      </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6933,12 +7418,14 @@
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
+      <c r="E119" s="13">
+        <v>1</v>
+      </c>
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
       <c r="H119" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6954,12 +7441,14 @@
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
+      <c r="E120" s="13">
+        <v>1</v>
+      </c>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
       <c r="H120" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="17" t="str">
         <f t="shared" si="3"/>
@@ -6975,7 +7464,9 @@
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="13">
+        <v>0</v>
+      </c>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
       <c r="H121" s="17">
@@ -6996,12 +7487,14 @@
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
+      <c r="E122" s="13">
+        <v>1</v>
+      </c>
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7017,12 +7510,14 @@
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
+      <c r="E123" s="13">
+        <v>1</v>
+      </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7033,17 +7528,19 @@
       <c r="A124" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="33" t="str">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -7057,12 +7554,14 @@
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
+      <c r="E125" s="13">
+        <v>1</v>
+      </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7078,12 +7577,14 @@
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="13">
+        <v>1</v>
+      </c>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7094,17 +7595,19 @@
       <c r="A127" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="33" t="str">
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -7113,17 +7616,19 @@
       <c r="A128" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="33" t="str">
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="27" t="str">
         <f t="shared" si="3"/>
         <v>NO</v>
       </c>
@@ -7137,12 +7642,14 @@
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
+      <c r="E129" s="13">
+        <v>1</v>
+      </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" s="17" t="str">
         <f t="shared" si="3"/>
@@ -7333,8 +7840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7348,17 +7855,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="19" t="s">
@@ -7393,19 +7900,21 @@
       <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="33">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33">
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27">
         <f>SUM(B3:G3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="27">
         <f>H3/6</f>
         <v>0</v>
       </c>
@@ -7419,16 +7928,18 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17">
         <f t="shared" ref="H4:H67" si="0">SUM(B4:G4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" ref="I4:I67" si="1">H4/6</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7440,16 +7951,18 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7461,16 +7974,18 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7482,16 +7997,18 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7503,16 +8020,18 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>4</v>
+      </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7524,16 +8043,18 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17">
+        <v>2</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7545,16 +8066,18 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17">
+        <v>4</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7566,33 +8089,37 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17">
+        <v>20</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="33">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7606,16 +8133,18 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7627,16 +8156,18 @@
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7648,16 +8179,18 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7669,16 +8202,18 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7690,16 +8225,18 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7711,16 +8248,18 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17">
+        <v>5</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7732,16 +8271,18 @@
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="17">
+        <v>5</v>
+      </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7753,16 +8294,18 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17">
+        <v>4</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7774,33 +8317,37 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17">
+        <v>4</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7814,16 +8361,18 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="17">
+        <v>8</v>
+      </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7835,16 +8384,18 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="17">
+        <v>4</v>
+      </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7856,7 +8407,9 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -7877,16 +8430,18 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7898,16 +8453,18 @@
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="17">
+        <v>2</v>
+      </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7919,16 +8476,18 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7940,16 +8499,18 @@
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="17">
+        <v>2</v>
+      </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7961,16 +8522,18 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17">
+        <v>5</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7982,16 +8545,18 @@
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="17">
+        <v>5</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8003,16 +8568,18 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8024,16 +8591,18 @@
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8045,16 +8614,18 @@
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8066,16 +8637,18 @@
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8087,16 +8660,18 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="17">
+        <v>2</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8108,16 +8683,18 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="17">
+        <v>2</v>
+      </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8129,16 +8706,18 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8150,16 +8729,18 @@
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8171,16 +8752,18 @@
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="17">
+        <v>4</v>
+      </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8192,7 +8775,9 @@
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17">
@@ -8208,19 +8793,21 @@
       <c r="A42" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8232,16 +8819,18 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I43" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8253,16 +8842,18 @@
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I44" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8274,16 +8865,18 @@
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I45" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8295,33 +8888,37 @@
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I46" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="33">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8335,16 +8932,18 @@
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="17">
+        <v>3</v>
+      </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8356,16 +8955,18 @@
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8377,16 +8978,18 @@
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="17">
+        <v>3</v>
+      </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I50" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8398,16 +9001,18 @@
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="17">
+        <v>3</v>
+      </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I51" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8419,16 +9024,18 @@
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="17">
+        <v>2</v>
+      </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I52" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8440,16 +9047,18 @@
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="E53" s="17">
+        <v>7</v>
+      </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I53" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8461,7 +9070,9 @@
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17">
@@ -8482,16 +9093,18 @@
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="17">
+        <v>6</v>
+      </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I55" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8503,16 +9116,18 @@
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="17">
+        <v>4</v>
+      </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I56" s="17">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8524,16 +9139,18 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="17">
+        <v>3</v>
+      </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I57" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8545,16 +9162,18 @@
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="17">
+        <v>2</v>
+      </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I58" s="17">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8566,16 +9185,18 @@
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="17">
+        <v>8</v>
+      </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I59" s="17">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8587,33 +9208,37 @@
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="17">
+        <v>6</v>
+      </c>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I60" s="17">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A61" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="33">
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8622,17 +9247,19 @@
       <c r="A62" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="33">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8646,16 +9273,18 @@
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="17">
+        <v>3</v>
+      </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8667,16 +9296,18 @@
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="17">
+        <v>3</v>
+      </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I64" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8688,16 +9319,18 @@
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="E65" s="17">
+        <v>3</v>
+      </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I65" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8709,16 +9342,18 @@
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="17">
+        <v>3</v>
+      </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I66" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8730,16 +9365,18 @@
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="17">
+        <v>10</v>
+      </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I67" s="17">
         <f t="shared" si="1"/>
-        <v>1.1666666666666667</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8751,16 +9388,18 @@
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="17">
+        <v>6</v>
+      </c>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17">
         <f t="shared" ref="H68:H131" si="2">SUM(B68:G68)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I68" s="17">
         <f t="shared" ref="I68:I131" si="3">H68/6</f>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8772,16 +9411,18 @@
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="17">
+        <v>2</v>
+      </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8793,16 +9434,18 @@
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="17">
+        <v>7</v>
+      </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I70" s="17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8814,16 +9457,18 @@
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="E71" s="17">
+        <v>10</v>
+      </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I71" s="17">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8835,16 +9480,18 @@
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="17">
+        <v>7</v>
+      </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I72" s="17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8856,33 +9503,37 @@
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="E73" s="17">
+        <v>7</v>
+      </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I73" s="17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A74" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="33">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8891,17 +9542,19 @@
       <c r="A75" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="33">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8910,17 +9563,19 @@
       <c r="A76" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="33">
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8929,17 +9584,19 @@
       <c r="A77" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="33">
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8948,17 +9605,19 @@
       <c r="A78" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="33">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8972,16 +9631,18 @@
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="E79" s="17">
+        <v>8</v>
+      </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I79" s="17">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -8993,16 +9654,18 @@
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="17">
+        <v>4</v>
+      </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I80" s="17">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9014,16 +9677,18 @@
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="E81" s="17">
+        <v>9</v>
+      </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I81" s="17">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9035,16 +9700,18 @@
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="E82" s="17">
+        <v>4</v>
+      </c>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I82" s="17">
         <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9056,16 +9723,18 @@
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="17">
+        <v>3</v>
+      </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9077,33 +9746,37 @@
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="17">
+        <v>5</v>
+      </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I84" s="17">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A85" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="33">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9117,16 +9790,18 @@
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="17">
+        <v>6</v>
+      </c>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I86" s="17">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9138,16 +9813,18 @@
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="E87" s="17">
+        <v>3</v>
+      </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I87" s="17">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9159,33 +9836,37 @@
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="E88" s="17">
+        <v>3</v>
+      </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I88" s="17">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A89" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="33">
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9199,16 +9880,18 @@
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="E90" s="17">
+        <v>3</v>
+      </c>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I90" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9220,16 +9903,18 @@
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="E91" s="17">
+        <v>2</v>
+      </c>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I91" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9241,16 +9926,18 @@
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="E92" s="17">
+        <v>4</v>
+      </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I92" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9262,16 +9949,18 @@
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="17">
+        <v>4</v>
+      </c>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I93" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9283,16 +9972,18 @@
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="E94" s="17">
+        <v>4</v>
+      </c>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I94" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9304,16 +9995,18 @@
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="E95" s="17">
+        <v>4</v>
+      </c>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I95" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9325,16 +10018,18 @@
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="E96" s="17">
+        <v>4</v>
+      </c>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I96" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9346,16 +10041,18 @@
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="E97" s="17">
+        <v>4</v>
+      </c>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I97" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9367,16 +10064,18 @@
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="E98" s="17">
+        <v>4</v>
+      </c>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I98" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9388,16 +10087,18 @@
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="E99" s="17">
+        <v>4</v>
+      </c>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I99" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9409,16 +10110,18 @@
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="E100" s="17">
+        <v>4</v>
+      </c>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9430,16 +10133,18 @@
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="E101" s="17">
+        <v>5</v>
+      </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="I101" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9451,16 +10156,18 @@
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="E102" s="17">
+        <v>5</v>
+      </c>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I102" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9472,33 +10179,37 @@
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="E103" s="17">
+        <v>7</v>
+      </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A104" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="33">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9512,33 +10223,37 @@
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
+      <c r="E105" s="17">
+        <v>3</v>
+      </c>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A106" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="33">
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9547,17 +10262,19 @@
       <c r="A107" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="33">
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9566,17 +10283,19 @@
       <c r="A108" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="33">
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9585,17 +10304,19 @@
       <c r="A109" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="33">
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9604,17 +10325,19 @@
       <c r="A110" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I110" s="33">
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9623,17 +10346,19 @@
       <c r="A111" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="33">
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9642,17 +10367,19 @@
       <c r="A112" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="33">
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9661,17 +10388,19 @@
       <c r="A113" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="33">
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9680,17 +10409,19 @@
       <c r="A114" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="33">
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9699,17 +10430,19 @@
       <c r="A115" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="33">
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9718,17 +10451,19 @@
       <c r="A116" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="33">
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9742,16 +10477,18 @@
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
+      <c r="E117" s="17">
+        <v>7</v>
+      </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="I117" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9763,16 +10500,18 @@
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="E118" s="20">
+        <v>8</v>
+      </c>
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="I118" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9784,16 +10523,18 @@
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="E119" s="20">
+        <v>9</v>
+      </c>
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="I119" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9805,16 +10546,18 @@
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="E120" s="20">
+        <v>8</v>
+      </c>
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="17">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="I120" s="17">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9826,16 +10569,18 @@
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
+      <c r="E121" s="17">
+        <v>7</v>
+      </c>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I121" s="17">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -9847,33 +10592,37 @@
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
+      <c r="E122" s="17">
+        <v>4</v>
+      </c>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I122" s="17">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A123" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="33">
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9887,52 +10636,58 @@
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
+      <c r="E124" s="17">
+        <v>7</v>
+      </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I124" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A125" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27">
+        <v>6</v>
+      </c>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I125" s="27">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A126" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I126" s="33">
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9946,7 +10701,9 @@
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
+      <c r="E127" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17">
@@ -9967,16 +10724,18 @@
       </c>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="E128" s="20">
+        <v>4</v>
+      </c>
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I128" s="17">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
